--- a/biology/Mycologie/Neobulgaria_pura/Neobulgaria_pura.xlsx
+++ b/biology/Mycologie/Neobulgaria_pura/Neobulgaria_pura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Neobulgaria pura connue aussi sous le nom vernaculaire Pézize pure est une espèce d'ascomycète de la famille des Helotiaceae.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce champignon de la division des ascomycètes a une forme de coupe sessile (pas de pédicule) de 1 à 2,5 cm de haut[1] et larges de 2 à 4 cm de diamètre et de couleur blanchâtre ou rosée avec des reflets lilas. L'intérieur de la coupe est visqueux et granuleux. Sa chair est translucide et de consistance gélatineuse[2]. La surface est plus foncée, granuleuse et denticulée[1].
-Les spores sont biguttulées, hyalines et elliptiques longues de 6,5 à 9 µm et larges de 3 à 4,5 µm[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce champignon de la division des ascomycètes a une forme de coupe sessile (pas de pédicule) de 1 à 2,5 cm de haut et larges de 2 à 4 cm de diamètre et de couleur blanchâtre ou rosée avec des reflets lilas. L'intérieur de la coupe est visqueux et granuleux. Sa chair est translucide et de consistance gélatineuse. La surface est plus foncée, granuleuse et denticulée.
+Les spores sont biguttulées, hyalines et elliptiques longues de 6,5 à 9 µm et larges de 3 à 4,5 µm.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il pousse en groupes serrés sur les branches et les souches des feuillu dont les hêtres. Il est saprotrophe On peut l'apercevoir de l'été à l'automne[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il pousse en groupes serrés sur les branches et les souches des feuillu dont les hêtres. Il est saprotrophe On peut l'apercevoir de l'été à l'automne.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est non comestible[2],[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est non comestible,.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On le trouve en France ainsi qu'au Québec[1],[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le trouve en France ainsi qu'au Québec,.
 </t>
         </is>
       </c>
@@ -636,13 +656,50 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Neobulgaria pura (Pers.) Petr., 1921[3].
-L'espèce a été initialement classée dans le genre Peziza sous le basionyme Peziza pura Pers., 1796[3].
-Son nom vernaculaire est Pézize pure[1].
-Synonymes
-Neobulgaria pura a pour synonymes[3] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Neobulgaria pura (Pers.) Petr., 1921.
+L'espèce a été initialement classée dans le genre Peziza sous le basionyme Peziza pura Pers., 1796.
+Son nom vernaculaire est Pézize pure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Neobulgaria_pura</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neobulgaria_pura</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Neobulgaria pura a pour synonymes :
 Bulgaria pura (Pers.) Fr., 1822
 Coryne bresadolae Rehm, 1915
 Coryne foliacea Bres., 1905
@@ -650,39 +707,75 @@
 Neobulgaria pura var. pura , 1921
 Ombrophila pura (Pers.) Baral, 1985
 Ombrophila pura (Pers.) Fr., 1849
-Peziza pura Pers., 1796
-Liste des variétés
-Selon MycoBank                                            (12 février 2024)[3] :
+Peziza pura Pers., 1796</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Neobulgaria_pura</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neobulgaria_pura</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (12 février 2024) :
 Neobulgaria pura var. foliacea (Bres.) Dennis &amp; Gamundí, 1969
 Neobulgaria pura var. pura , 1921</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Neobulgaria_pura</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Neobulgaria_pura</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Neobulgaria_pura</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neobulgaria_pura</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Petrak, F., « Mykologische Notizen. II », Annales Mycologici, vol. 19,‎ 1921, p. 17-128 (lire en ligne)</t>
         </is>
